--- a/resources/mots_result.xlsx
+++ b/resources/mots_result.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FYP\2223CUHKFYP.github.io\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Games\2223CUHKFYP.github.io\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{310D4EF0-9DA4-4500-A3D2-95B81C0B60B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="normal" sheetId="1" r:id="rId1"/>
@@ -145,298 +144,298 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>66.8 (+7.3) (-0.1)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>42.6 (+2.9) (-2.3)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>25.2 (+2.2) (-2.6)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>42.3 (+2.6) (-2.6)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>24.1 (+1.1) (-3.7)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>67.3 (+7.8) (+0.4)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>65.9 (+6.4) (-1.0)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>41.2 (+1.5) (-3.7)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>25.5 (+2.5) (-2.3)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>67.1 (+7.6) (-0.2)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>42.8 (+3.1) (-2.1)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>25.3 (+3.1) (-2.5)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>42.4 (+4.9) (-2.5)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>24.8 (+2.6) (-3.0)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>67.1 (+7.6) (+0.2)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>41.8 (+4.3) (-3.1)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>24.6 (+2.4) (-3.2)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>66.4 (+6.9) (-0.5)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>41.5 (+4.0) (-3.4)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>25.2 (+3.0) (-2.6)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>67.0 (+7.5) (+0.1)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>42.5 (+5.0) (-2.4)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>20.8 (+7.1) (-7.0)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>59.4 (+0.3) (-7.5)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>35.5 (+9.8) (-9.4)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>59.3 (+0.2) (-7.6)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>27.4 (+1.7) (-17.5)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>22.0 (+8.3) (-5.8)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>66.5 (+7.4) (-0.4)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>38.5 (+12.8) (-6.4)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>22.4 (+8.7) (-5.4)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>65.9 (+6.8) (-1.0)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>37.9 (+12.2) (-7.0)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>28.1 (+0.9) (+0)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>67.3 (-0.1) (+0.1)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>43.9 (+0.5) (-0.6)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>27.5 (+2.4) (-0.6)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>67.4 (-0.1) (+0.2)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>43.9 (+3.0) (-0.6)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>22.6 (+2.8) (-5.5)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>67.1 (+0.1) (-0.1)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>38.8 (+5.2) (-5.7)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>27.6 (+0.4) (-0.5)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>67.5 (+0.1) (+0.3)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>43.7 (+0.3) (-0.8)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>26.6 (+1.5) (-1.5)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>67.5 (+0) (+0.3)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>43.4 (+2.5) (-1.1)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.5 (-0.3) (-8.6)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>66.9 (-0.1) (-0.3)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>33.4 (-0.2) (-11.1)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>25.5 (-1.7) (-2.6)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>67.2 (-0.2) (+0)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>40.1 (-3.3) (-4.4)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>25.9 (+0.8) (-2.2)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>67.3 (-0.2) (+0.1)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>40.2 (-0.7) (-4.3)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>25.0 (+5.2) (-3.1)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>67.3 (+0.3) (+0.1)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>39.6 (+0.6) (-4.9)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>25.3 (-1.9) (-2.8)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>42.9 (-0.5) (-1.6)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>25.7 (+0.6) (-2.4)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>67.1 (-0.4) (-0.1)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>43.7 (+2.8) (-0.8)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>23.8 (+4.0) (-4.3)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>67.6 (+0.6) (+0.4)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>41.3 (+7.7) (-3.2)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>25.1 (-3.0)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>67.4 (+0.2)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>25.8 (+2.8) (-2.0)</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>66.8 (+7.3) (-0.1)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>42.6 (+2.9) (-2.3)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>25.2 (+2.2) (-2.6)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>42.3 (+2.6) (-2.6)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>24.1 (+1.1) (-3.7)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>67.3 (+7.8) (+0.4)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>65.9 (+6.4) (-1.0)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>41.2 (+1.5) (-3.7)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>25.5 (+2.5) (-2.3)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>67.1 (+7.6) (-0.2)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>42.8 (+3.1) (-2.1)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>25.3 (+3.1) (-2.5)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>42.4 (+4.9) (-2.5)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>24.8 (+2.6) (-3.0)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>67.1 (+7.6) (+0.2)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>41.8 (+4.3) (-3.1)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>24.6 (+2.4) (-3.2)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>66.4 (+6.9) (-0.5)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>41.5 (+4.0) (-3.4)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>25.2 (+3.0) (-2.6)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>67.0 (+7.5) (+0.1)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>42.5 (+5.0) (-2.4)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>20.8 (+7.1) (-7.0)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>59.4 (+0.3) (-7.5)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>35.5 (+9.8) (-9.4)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>15.6 (-1.9) (-12.2)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>59.3 (+0.2) (-7.6)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>27.4 (+1.7) (-17.5)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>22.0 (+8.3) (-5.8)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>66.5 (+7.4) (-0.4)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>38.5 (+12.8) (-6.4)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>22.4 (+8.7) (-5.4)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>65.9 (+6.8) (-1.0)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>37.9 (+12.2) (-7.0)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>28.1 (+0.9) (+0)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>67.3 (-0.1) (+0.1)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>43.9 (+0.5) (-0.6)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>27.5 (+2.4) (-0.6)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>67.4 (-0.1) (+0.2)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>43.9 (+3.0) (-0.6)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>22.6 (+2.8) (-5.5)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>67.1 (+0.1) (-0.1)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>38.8 (+5.2) (-5.7)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>27.6 (+0.4) (-0.5)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>67.5 (+0.1) (+0.3)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>43.7 (+0.3) (-0.8)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>26.6 (+1.5) (-1.5)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>67.5 (+0) (+0.3)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>43.4 (+2.5) (-1.1)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>19.5 (-0.3) (-8.6)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>66.9 (-0.1) (-0.3)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>33.4 (-0.2) (-11.1)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>25.5 (-1.7) (-2.6)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>67.2 (-0.2) (+0)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>40.1 (-3.3) (-4.4)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>25.9 (+0.8) (-2.2)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>67.3 (-0.2) (+0.1)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>40.2 (-0.7) (-4.3)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>25.0 (+5.2) (-3.1)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>67.3 (+0.3) (+0.1)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>39.6 (+0.6) (-4.9)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>25.3 (-1.9) (-2.8)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>42.9 (-0.5) (-1.6)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>25.7 (+0.6) (-2.4)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>67.1 (-0.4) (-0.1)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>43.7 (+2.8) (-0.8)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>23.8 (+4.0) (-4.3)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>67.6 (+0.6) (+0.4)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>41.3 (+7.7) (-3.2)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>25.1 (-3.0)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>67.4 (+0.2)</t>
+    <t>15.6 (+1.9) (-12.2)</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1390,7 +1389,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
@@ -1553,7 +1552,7 @@
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -1567,7 +1566,7 @@
         <v>0.02</v>
       </c>
       <c r="C6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
@@ -1609,7 +1608,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1646,13 +1645,13 @@
         <v>17</v>
       </c>
       <c r="C2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" t="s">
         <v>29</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>30</v>
-      </c>
-      <c r="E2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1663,13 +1662,13 @@
         <v>18</v>
       </c>
       <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" t="s">
         <v>32</v>
-      </c>
-      <c r="D3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1680,13 +1679,13 @@
         <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" t="s">
         <v>36</v>
-      </c>
-      <c r="E4" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1697,13 +1696,13 @@
         <v>20</v>
       </c>
       <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s">
         <v>38</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>39</v>
-      </c>
-      <c r="E5" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1754,13 +1753,13 @@
         <v>17</v>
       </c>
       <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
         <v>41</v>
-      </c>
-      <c r="D2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1771,13 +1770,13 @@
         <v>18</v>
       </c>
       <c r="C3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" t="s">
         <v>43</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>44</v>
-      </c>
-      <c r="E3" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1788,13 +1787,13 @@
         <v>19</v>
       </c>
       <c r="C4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" t="s">
         <v>46</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>47</v>
-      </c>
-      <c r="E4" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1805,13 +1804,13 @@
         <v>20</v>
       </c>
       <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" t="s">
         <v>50</v>
-      </c>
-      <c r="E5" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1824,8 +1823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1862,13 +1861,13 @@
         <v>17</v>
       </c>
       <c r="C2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" t="s">
         <v>52</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>53</v>
-      </c>
-      <c r="E2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1879,13 +1878,13 @@
         <v>18</v>
       </c>
       <c r="C3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" t="s">
         <v>55</v>
-      </c>
-      <c r="D3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1896,13 +1895,13 @@
         <v>19</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" t="s">
         <v>58</v>
-      </c>
-      <c r="D4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E4" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1913,13 +1912,13 @@
         <v>20</v>
       </c>
       <c r="C5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" t="s">
         <v>61</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E5" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1970,13 +1969,13 @@
         <v>17</v>
       </c>
       <c r="C2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" t="s">
         <v>64</v>
-      </c>
-      <c r="D2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E2" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1987,13 +1986,13 @@
         <v>18</v>
       </c>
       <c r="C3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" t="s">
         <v>73</v>
-      </c>
-      <c r="D3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E3" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2004,13 +2003,13 @@
         <v>19</v>
       </c>
       <c r="C4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" t="s">
         <v>82</v>
-      </c>
-      <c r="D4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E4" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -2021,13 +2020,13 @@
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -2100,13 +2099,13 @@
         <v>17</v>
       </c>
       <c r="C2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" t="s">
         <v>67</v>
-      </c>
-      <c r="D2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E2" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2117,13 +2116,13 @@
         <v>18</v>
       </c>
       <c r="C3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" t="s">
         <v>76</v>
-      </c>
-      <c r="D3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E3" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2134,13 +2133,13 @@
         <v>19</v>
       </c>
       <c r="C4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" t="s">
         <v>85</v>
-      </c>
-      <c r="D4" t="s">
-        <v>86</v>
-      </c>
-      <c r="E4" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -2151,13 +2150,13 @@
         <v>20</v>
       </c>
       <c r="C5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" t="s">
         <v>93</v>
-      </c>
-      <c r="D5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E5" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -2230,13 +2229,13 @@
         <v>17</v>
       </c>
       <c r="C2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" t="s">
         <v>70</v>
-      </c>
-      <c r="D2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E2" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2247,13 +2246,13 @@
         <v>18</v>
       </c>
       <c r="C3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" t="s">
         <v>79</v>
-      </c>
-      <c r="D3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E3" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2264,13 +2263,13 @@
         <v>19</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" t="s">
         <v>88</v>
-      </c>
-      <c r="D4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E4" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -2281,13 +2280,13 @@
         <v>20</v>
       </c>
       <c r="C5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" t="s">
         <v>96</v>
-      </c>
-      <c r="D5" t="s">
-        <v>97</v>
-      </c>
-      <c r="E5" t="s">
-        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/resources/mots_result.xlsx
+++ b/resources/mots_result.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Games\2223CUHKFYP.github.io\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FYP\2223CUHKFYP.github.io\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{310D4EF0-9DA4-4500-A3D2-95B81C0B60B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="normal" sheetId="1" r:id="rId1"/>
@@ -144,6 +145,10 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>25.8 (+2.8) (-2.0)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>66.8 (+7.3) (-0.1)</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -244,6 +249,10 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>15.6 (-1.9) (-12.2)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>59.3 (+0.2) (-7.6)</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -421,21 +430,13 @@
   </si>
   <si>
     <t>67.4 (+0.2)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>25.8 (+2.8) (-2.0)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>15.6 (+1.9) (-12.2)</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1389,7 +1390,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
@@ -1552,7 +1553,7 @@
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -1566,7 +1567,7 @@
         <v>0.02</v>
       </c>
       <c r="C6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
@@ -1608,7 +1609,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection sqref="A1:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1645,13 +1646,13 @@
         <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1662,13 +1663,13 @@
         <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1679,13 +1680,13 @@
         <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1696,13 +1697,13 @@
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1753,13 +1754,13 @@
         <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1770,13 +1771,13 @@
         <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1787,13 +1788,13 @@
         <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1804,13 +1805,13 @@
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1823,8 +1824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1861,13 +1862,13 @@
         <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1878,13 +1879,13 @@
         <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1895,13 +1896,13 @@
         <v>19</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1912,13 +1913,13 @@
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1969,13 +1970,13 @@
         <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1986,13 +1987,13 @@
         <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2003,13 +2004,13 @@
         <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -2020,13 +2021,13 @@
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -2099,13 +2100,13 @@
         <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2116,13 +2117,13 @@
         <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2133,13 +2134,13 @@
         <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -2150,13 +2151,13 @@
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -2229,13 +2230,13 @@
         <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2246,13 +2247,13 @@
         <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2263,13 +2264,13 @@
         <v>19</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -2280,13 +2281,13 @@
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/resources/mots_result.xlsx
+++ b/resources/mots_result.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="normal" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="99">
   <si>
     <t>Model</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -65,14 +65,6 @@
   </si>
   <si>
     <t>27.2 (-0.9)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>67.4 (-0.2)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>25.1 (-0.3)</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -1498,13 +1490,13 @@
         <v>0.01</v>
       </c>
       <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
         <v>21</v>
-      </c>
-      <c r="D2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1515,13 +1507,13 @@
         <v>0.02</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1532,13 +1524,13 @@
         <v>0.06</v>
       </c>
       <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
         <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1552,7 +1544,7 @@
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -1566,13 +1558,13 @@
         <v>0.02</v>
       </c>
       <c r="C6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1583,13 +1575,13 @@
         <v>0.06</v>
       </c>
       <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
         <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1642,16 +1634,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1659,16 +1651,16 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1676,16 +1668,16 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s">
         <v>33</v>
       </c>
-      <c r="D4" t="s">
-        <v>35</v>
-      </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1693,16 +1685,16 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" t="s">
         <v>37</v>
-      </c>
-      <c r="D5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1750,16 +1742,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1767,16 +1759,16 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" t="s">
         <v>42</v>
-      </c>
-      <c r="D3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1784,16 +1776,16 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" t="s">
         <v>45</v>
-      </c>
-      <c r="D4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1801,16 +1793,16 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" t="s">
         <v>48</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1823,7 +1815,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -1858,16 +1850,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" t="s">
         <v>51</v>
-      </c>
-      <c r="D2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E2" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1875,16 +1867,16 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1892,16 +1884,16 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" t="s">
         <v>56</v>
-      </c>
-      <c r="D4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E4" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1909,16 +1901,16 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" t="s">
         <v>59</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1929,10 +1921,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1966,16 +1958,16 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" t="s">
         <v>62</v>
-      </c>
-      <c r="D2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E2" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1983,16 +1975,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" t="s">
         <v>71</v>
-      </c>
-      <c r="D3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E3" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2000,16 +1992,16 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" t="s">
         <v>80</v>
-      </c>
-      <c r="D4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E4" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -2017,38 +2009,16 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C8">
-        <v>28.1</v>
-      </c>
-      <c r="D8">
-        <v>67.2</v>
-      </c>
-      <c r="E8">
-        <v>44.5</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2059,10 +2029,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2096,16 +2066,16 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" t="s">
         <v>65</v>
-      </c>
-      <c r="D2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E2" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2113,16 +2083,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" t="s">
         <v>74</v>
-      </c>
-      <c r="D3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E3" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2130,16 +2100,16 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" t="s">
         <v>83</v>
-      </c>
-      <c r="D4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E4" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -2147,38 +2117,16 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" t="s">
         <v>91</v>
-      </c>
-      <c r="D5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C8">
-        <v>28.1</v>
-      </c>
-      <c r="D8">
-        <v>67.2</v>
-      </c>
-      <c r="E8">
-        <v>44.5</v>
       </c>
     </row>
   </sheetData>
@@ -2191,8 +2139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2226,16 +2174,16 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" t="s">
         <v>68</v>
-      </c>
-      <c r="D2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2243,16 +2191,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" t="s">
         <v>77</v>
-      </c>
-      <c r="D3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E3" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2260,16 +2208,16 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" t="s">
         <v>86</v>
-      </c>
-      <c r="D4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E4" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -2277,16 +2225,16 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" t="s">
         <v>94</v>
-      </c>
-      <c r="D5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E5" t="s">
-        <v>96</v>
       </c>
     </row>
   </sheetData>
